--- a/todo.xlsx
+++ b/todo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Contenu</t>
   </si>
@@ -37,6 +37,18 @@
   </si>
   <si>
     <t>A faire</t>
+  </si>
+  <si>
+    <t>Réinitialisation donnée</t>
+  </si>
+  <si>
+    <t>Modele importation csv</t>
+  </si>
+  <si>
+    <t>Faire marché le projet</t>
+  </si>
+  <si>
+    <t>Comprendre le projet</t>
   </si>
 </sst>
 </file>
@@ -68,7 +80,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -78,6 +90,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -109,7 +133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -117,7 +141,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E4"/>
+  <dimension ref="A3:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,12 +457,51 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5">
         <v>0.35833333333333334</v>
       </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Contenu</t>
   </si>
@@ -49,6 +49,27 @@
   </si>
   <si>
     <t>Comprendre le projet</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Créer une class pour representer les données</t>
+  </si>
+  <si>
+    <t>usr, pwd</t>
+  </si>
+  <si>
+    <t>Créer une class service pour intéargir avec l'api erpnext</t>
+  </si>
+  <si>
+    <t>Créer une page de login</t>
+  </si>
+  <si>
+    <t>Login et password</t>
+  </si>
+  <si>
+    <t>Créer un controller pour gérer les requettes du login</t>
   </si>
 </sst>
 </file>
@@ -133,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -145,6 +166,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,16 +449,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E8"/>
+  <dimension ref="A3:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="2" max="2" width="50.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" customWidth="1"/>
   </cols>
@@ -503,7 +527,52 @@
       <c r="D8" s="4"/>
       <c r="E8" s="3"/>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="3"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A10:A13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/todo.xlsx
+++ b/todo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Contenu</t>
   </si>
@@ -70,6 +70,30 @@
   </si>
   <si>
     <t>Créer un controller pour gérer les requettes du login</t>
+  </si>
+  <si>
+    <t>Choisir un fournisseur</t>
+  </si>
+  <si>
+    <t>name, supplier_name</t>
+  </si>
+  <si>
+    <t>Créer une page pour choisir le fournisseur</t>
+  </si>
+  <si>
+    <t>Créer un controller pour gérer les requettes sur fournisseur</t>
+  </si>
+  <si>
+    <t>Listé les demandes de devis</t>
+  </si>
+  <si>
+    <t>Créer une page pour lister les demandes de devis</t>
+  </si>
+  <si>
+    <t>information à afficher(name, customer_name, transaction_date, order_type, company, total_quantity , base total)</t>
+  </si>
+  <si>
+    <t>49min</t>
   </si>
 </sst>
 </file>
@@ -154,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -164,10 +188,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -449,25 +496,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E13"/>
+  <dimension ref="A3:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44" style="7" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -484,10 +531,10 @@
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="6"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="5">
+      <c r="E4" s="12">
         <v>0.35833333333333334</v>
       </c>
     </row>
@@ -495,83 +542,171 @@
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="5"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="6"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="5"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="3"/>
+      <c r="E7" s="13"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="3"/>
+      <c r="E8" s="13"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="3"/>
+      <c r="E10" s="13"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="3"/>
+      <c r="E11" s="13"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="3"/>
+      <c r="E12" s="13"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="6"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="3"/>
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="13"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="13"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="13"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="13"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="13"/>
+    </row>
+    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>Contenu</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>49min</t>
+  </si>
+  <si>
+    <t>16h58-23h29</t>
   </si>
 </sst>
 </file>
@@ -204,17 +207,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -498,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,7 +510,7 @@
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54.42578125" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44" style="7" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -534,7 +537,7 @@
       <c r="B4" s="8"/>
       <c r="C4" s="6"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <v>0.35833333333333334</v>
       </c>
     </row>
@@ -545,7 +548,7 @@
       <c r="B5" s="8"/>
       <c r="C5" s="6"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="12"/>
+      <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -554,7 +557,7 @@
       <c r="B6" s="8"/>
       <c r="C6" s="6"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="12"/>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -563,7 +566,7 @@
       <c r="B7" s="8"/>
       <c r="C7" s="6"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="13"/>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -572,10 +575,10 @@
       <c r="B8" s="8"/>
       <c r="C8" s="6"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="13"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -585,19 +588,19 @@
         <v>12</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="13"/>
+      <c r="E10" s="12"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="13"/>
+      <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
@@ -605,19 +608,19 @@
         <v>15</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="13"/>
+      <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="13"/>
+      <c r="E13" s="12"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -627,19 +630,19 @@
         <v>18</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="13"/>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="13"/>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="8" t="s">
         <v>19</v>
       </c>
@@ -647,19 +650,19 @@
         <v>15</v>
       </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="13"/>
+      <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="13"/>
+      <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="14" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -669,19 +672,21 @@
         <v>18</v>
       </c>
       <c r="D18" s="4"/>
-      <c r="E18" s="13"/>
+      <c r="E18" s="12" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="13"/>
+      <c r="E19" s="12"/>
     </row>
     <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
+      <c r="A20" s="14"/>
       <c r="B20" s="8" t="s">
         <v>22</v>
       </c>
@@ -689,18 +694,18 @@
         <v>23</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
+      <c r="A21" s="14"/>
       <c r="B21" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="13"/>
+      <c r="E21" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
   <si>
     <t>Contenu</t>
   </si>
@@ -97,6 +97,67 @@
   </si>
   <si>
     <t>16h58-23h29</t>
+  </si>
+  <si>
+    <t>Importation</t>
+  </si>
+  <si>
+    <t>Crée une page pour importer 3 fichier csv</t>
+  </si>
+  <si>
+    <t>Ajouter un section pour supprimer les données de la base de donnée</t>
+  </si>
+  <si>
+    <t>Crée les class model du fichier csv avec validation des colonnes</t>
+  </si>
+  <si>
+    <t>crée une fonction pour extraire les données du fichier csv et les mettres dans chaque class correspondance</t>
+  </si>
+  <si>
+    <t>crée une fonction pour extraires les données d'une autre table mais se trouvant dans le meme fichier</t>
+  </si>
+  <si>
+    <t>Crée une fonction pour ecrire les données de la dans une fichier csv compatible avec le template d'importation du Erpnext</t>
+  </si>
+  <si>
+    <t>Créer une fonction pour preparer et importer les données dans un document data import</t>
+  </si>
+  <si>
+    <t>Gerer les exceptions</t>
+  </si>
+  <si>
+    <t>Lister les commandes</t>
+  </si>
+  <si>
+    <t>Créer une page avec filtre pour lister les commandes d'un fournisseur.
+On peut filtrer par status de la commande</t>
+  </si>
+  <si>
+    <t>créer une fonction pour avoir la lister des commandes et filtrer par status</t>
+  </si>
+  <si>
+    <t>Lister les factures et les payer</t>
+  </si>
+  <si>
+    <t>créer une fonction pour avoir la liste des factures</t>
+  </si>
+  <si>
+    <t>Créer une fonction pour payer le facture</t>
+  </si>
+  <si>
+    <t>Créer une fonction pour soumettre le facture</t>
+  </si>
+  <si>
+    <t>Créer une page pour lister les factures et les payer</t>
+  </si>
+  <si>
+    <t>Valider le montant</t>
+  </si>
+  <si>
+    <t>Gérer les exceptions</t>
+  </si>
+  <si>
+    <t>Initialiser git repository</t>
   </si>
 </sst>
 </file>
@@ -128,7 +189,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,8 +214,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -177,11 +244,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -219,6 +295,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E21"/>
+  <dimension ref="A3:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="91" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,141 +665,360 @@
       <c r="D8" s="4"/>
       <c r="E8" s="12"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="12"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="6"/>
       <c r="D11" s="4"/>
       <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C12" s="6"/>
       <c r="D12" s="4"/>
       <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="D13" s="4"/>
       <c r="E13" s="12"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>17</v>
-      </c>
+      <c r="A14" s="14"/>
       <c r="B14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C14" s="6"/>
       <c r="D14" s="4"/>
       <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
+      <c r="A15" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="B15" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="D15" s="4"/>
       <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C16" s="6"/>
       <c r="D16" s="4"/>
       <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="D17" s="4"/>
       <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="14"/>
+      <c r="B18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="12"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B19" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="12" t="s">
+      <c r="D19" s="4"/>
+      <c r="E19" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="12"/>
-    </row>
-    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>23</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C20" s="6"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="12"/>
+    </row>
+    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="12"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="12"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D23" s="15"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="12"/>
+    </row>
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="17"/>
+      <c r="B25" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="12"/>
+    </row>
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="17"/>
+      <c r="B26" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="17"/>
+      <c r="B27" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="12"/>
+    </row>
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="17"/>
+      <c r="B28" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="12"/>
+    </row>
+    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="17"/>
+      <c r="B29" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="12"/>
+    </row>
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="17"/>
+      <c r="B30" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="12"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="17"/>
+      <c r="B31" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="12"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="12"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="19"/>
+      <c r="B34" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="12"/>
+    </row>
+    <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="19"/>
+      <c r="B35" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="12"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="19"/>
+      <c r="B36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="12"/>
+    </row>
+    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="19"/>
+      <c r="B37" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="12"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="12"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="19"/>
+      <c r="B40" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="12"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="19"/>
+      <c r="B41" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="12"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="19"/>
+      <c r="B42" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="12"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="19"/>
+      <c r="B43" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="12"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="19"/>
+      <c r="B44" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="12"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="19"/>
+      <c r="B45" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="12"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="19"/>
+      <c r="B46" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="12"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="19"/>
+      <c r="B47" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
+  <mergeCells count="6">
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="A39:A47"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A24:A31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
